--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30825" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52160" uniqueCount="863">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30956,7 +30956,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>89</v>
@@ -32110,7 +32110,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
@@ -32122,43 +32122,43 @@
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>89</v>
@@ -32167,10 +32167,10 @@
         <v>89</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32191,7 +32191,7 @@
         <v>89</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>89</v>
@@ -32203,10 +32203,10 @@
         <v>89</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
@@ -32215,10 +32215,10 @@
         <v>89</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15">
@@ -33389,13 +33389,13 @@
         <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>89</v>
@@ -33428,34 +33428,34 @@
         <v>89</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33473,28 +33473,28 @@
         <v>89</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="AG25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26">
@@ -33502,7 +33502,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>89</v>
@@ -33562,7 +33562,7 @@
         <v>89</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>89</v>
@@ -33574,7 +33574,7 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>89</v>
@@ -33592,7 +33592,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33604,10 +33604,10 @@
         <v>89</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="AL26" s="5" t="s">
         <v>89</v>
@@ -33693,7 +33693,7 @@
         <v>89</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>89</v>
@@ -33734,73 +33734,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33812,34 +33812,34 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -35010,115 +35010,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="40">
@@ -35126,115 +35126,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -35242,115 +35242,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>125</v>
+        <v>376</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>125</v>
+        <v>387</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>125</v>
+        <v>482</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>125</v>
+        <v>497</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>125</v>
+        <v>545</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>125</v>
+        <v>564</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>125</v>
+        <v>590</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>125</v>
+        <v>627</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>125</v>
+        <v>652</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>125</v>
+        <v>665</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>125</v>
+        <v>692</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>125</v>
+        <v>722</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>125</v>
+        <v>747</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>125</v>
+        <v>774</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>125</v>
+        <v>788</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>125</v>
+        <v>822</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>125</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42">
